--- a/data/processed_data/clean_data_temp/融资信息.xlsx
+++ b/data/processed_data/clean_data_temp/融资信息.xlsx
@@ -34,7 +34,7 @@
     <t>day0</t>
   </si>
   <si>
-    <t>-65556</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
